--- a/medicine/Enfance/Ingrid_Chabbert/Ingrid_Chabbert.xlsx
+++ b/medicine/Enfance/Ingrid_Chabbert/Ingrid_Chabbert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ingrid Chabbert, née le 20 septembre 1978, est un autrice de littérature jeunesse et scénariste de bande dessinée française.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ingrid Chabbert s'associe en 2018 avec Léa Mazé, qui dessine la série Elma, une vie d'ours, qui met en scène « la vie d’une gamine insouciante élevée par un ours »[1]. L'album peut rappeler Le Livre de la jungle[2].
-Toujours en 2018, elle participe à l'album collectif Féministes (éditions Vide Cocagne)[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ingrid Chabbert s'associe en 2018 avec Léa Mazé, qui dessine la série Elma, une vie d'ours, qui met en scène « la vie d’une gamine insouciante élevée par un ours ». L'album peut rappeler Le Livre de la jungle.
+Toujours en 2018, elle participe à l'album collectif Féministes (éditions Vide Cocagne).
 </t>
         </is>
       </c>
@@ -545,12 +559,51 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Littérature jeunesse
-Roman jeunesse
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Roman jeunesse
 Le grand méchant lapin, dessin de Clotilde Goubely, Éditions Frimousse, 32p, 2017,  (ISBN 9782352413448)
-L'Amoureux de papa, illustré par Lauranne Quentric, Kilowatt, 2017
-Bande dessinée
-Les Jumelles, dessin Marjorie Béal, Des ronds dans l'O Jeunesse :
+L'Amoureux de papa, illustré par Lauranne Quentric, Kilowatt, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ingrid_Chabbert</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ingrid_Chabbert</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Jumelles, dessin Marjorie Béal, Des ronds dans l'O Jeunesse :
 La Rencontre, 2014  (ISBN 978-2-917237-60-1).
 Au parc, 2014  (ISBN 978-2-917237-71-7).
 Tine &amp; Junior, dessin Brice Follet, Frimousse, coll. « BD mousse » :
@@ -559,7 +612,7 @@
 Les Amies de papier, avec Christophe Cazenove (scénario) et Cécile (dessin), Bamboo Édition :
 Le Cadeau de nos 11 ans, 2017  (ISBN 978-2-8189-3612-2).
 12 printemps, 12 étés, 2018  (ISBN 978-2-8189-4419-6).
-Treize Envies de te revoir[4], 2019  (ISBN 978-2-8189-4419-6).
+Treize Envies de te revoir, 2019  (ISBN 978-2-8189-4419-6).
 L'Étrange boutique de Miss Potimary, dessin Séverine Lefèbvre, Jungle !, coll. « Jeunesse » :
 La Boîte à secrets, 2017  (ISBN 978-2-8222-1432-2).
 Toutes ailes déployées, 2018  (ISBN 978-2-8222-2263-1).
@@ -576,33 +629,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Ingrid_Chabbert</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ingrid_Chabbert</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2019 : Prix Harvey du meilleur livre européen pour Écumes (avec Carole Maurel)[5]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2019 : Prix Harvey du meilleur livre européen pour Écumes (avec Carole Maurel)</t>
         </is>
       </c>
     </row>
